--- a/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
+++ b/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>20.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008425</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融品牌优选混合C</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.96</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.42</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.75</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.23</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>008425</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>中融品牌优选混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.20</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.11</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5852</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
+++ b/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
+++ b/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
@@ -846,12 +846,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
+++ b/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,205 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009138</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6541</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008424</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中融品牌优选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2091</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009139</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实瑞成两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1696</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008425</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融品牌优选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -830,64 +690,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6541</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008424</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2091</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.04</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008425</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融品牌优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
+++ b/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.65</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.04</v>
       </c>
     </row>
@@ -515,6 +532,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
+++ b/数据整理/stocks/港股/00520-呷哺呷哺.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.65</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.04</v>
       </c>
     </row>
@@ -532,6 +549,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013091</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007182</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013899</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012904</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根鑫睿优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家沪港深蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013092</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013900</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根全景优势股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -663,7 +1268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -833,7 +1438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
